--- a/Python MP/Baseline/MP_StockingPoints.xlsx
+++ b/Python MP/Baseline/MP_StockingPoints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>CurrencyID</t>
   </si>
@@ -460,6 +460,12 @@
     <t>ABUJA (NIGERIA)</t>
   </si>
   <si>
+    <t>AD DAMMAM (SAUDI ARABIA)</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
     <t>ANTWERP (BELGIUM)</t>
   </si>
   <si>
@@ -469,6 +475,9 @@
     <t>BAMAKO (MALI)</t>
   </si>
   <si>
+    <t>BANDÉ (NIGER)</t>
+  </si>
+  <si>
     <t>BEIRA (MOZAMBIQUE)</t>
   </si>
   <si>
@@ -490,6 +499,9 @@
     <t>BOUAR (CEN.AFRICAN REP)</t>
   </si>
   <si>
+    <t>BOUMA (SENEGAL)</t>
+  </si>
+  <si>
     <t>BOZOUM (CEN.AFRICAN REP)</t>
   </si>
   <si>
@@ -502,9 +514,15 @@
     <t>CENTRAL RIVER REGION (GAMBIA)</t>
   </si>
   <si>
+    <t>CHADAKORI (NIGER)</t>
+  </si>
+  <si>
     <t>COKI (SENEGAL)</t>
   </si>
   <si>
+    <t>DAKOUMA (NIGER)</t>
+  </si>
+  <si>
     <t>DEDOUGOU (BURKINA FASO)</t>
   </si>
   <si>
@@ -514,6 +532,9 @@
     <t>DJIBOUTI</t>
   </si>
   <si>
+    <t>DJIRATAOUA (NIGER)</t>
+  </si>
+  <si>
     <t>DJOUGOU (BENIN)</t>
   </si>
   <si>
@@ -532,21 +553,39 @@
     <t>SOUTH AFRICA</t>
   </si>
   <si>
+    <t>FALWEL (NIGER)</t>
+  </si>
+  <si>
     <t>FARAFENNI (GAMBIA)</t>
   </si>
   <si>
+    <t>FAREY (NIGER)</t>
+  </si>
+  <si>
+    <t>GANGARA (NIGERIA)</t>
+  </si>
+  <si>
     <t>GAROUA (CAMEROON)</t>
   </si>
   <si>
+    <t>GAZAOUA (NIGER)</t>
+  </si>
+  <si>
     <t>GUEASSO (GUINEA)</t>
   </si>
   <si>
+    <t>GUIDAN ROUMDJI (NIGER)</t>
+  </si>
+  <si>
     <t>HAMBURG (GERMANY)</t>
   </si>
   <si>
     <t>GERMANY</t>
   </si>
   <si>
+    <t>HARIKANASSOU (NIGER)</t>
+  </si>
+  <si>
     <t>HOCHIMINH CITY (VIETNAM)</t>
   </si>
   <si>
@@ -595,15 +634,30 @@
     <t>KORIBONDO (SIERRA LEONE)</t>
   </si>
   <si>
+    <t>KORNAKA (NIGER)</t>
+  </si>
+  <si>
     <t>LE HAVRE (FRANCE)</t>
   </si>
   <si>
     <t>FRANCE</t>
   </si>
   <si>
+    <t>LOGA (NIGER)</t>
+  </si>
+  <si>
     <t>LOKOSSA (BENIN)</t>
   </si>
   <si>
+    <t>MADAOUA (NIGER)</t>
+  </si>
+  <si>
+    <t>MADAROUNFA (NIGER)</t>
+  </si>
+  <si>
+    <t>MAGARIA (NIGER)</t>
+  </si>
+  <si>
     <t>MAIDUGURI (NIGERIA)</t>
   </si>
   <si>
@@ -616,9 +670,18 @@
     <t>MAROUA (CAMEROON)</t>
   </si>
   <si>
+    <t>MAYAHI (NIGER)</t>
+  </si>
+  <si>
     <t>MERSIN (TURKEY)</t>
   </si>
   <si>
+    <t>MIRRIAH (NIGER)</t>
+  </si>
+  <si>
+    <t>MOKKO (NIGER)</t>
+  </si>
+  <si>
     <t>MONTREAL (CANADA)</t>
   </si>
   <si>
@@ -715,12 +778,24 @@
     <t>ROUEN (FRANCE)</t>
   </si>
   <si>
+    <t>SACLEPEA (LIBERIA)</t>
+  </si>
+  <si>
+    <t>SAFO (MALI)</t>
+  </si>
+  <si>
     <t>SAKIEMA (SIERRA LEONE)</t>
   </si>
   <si>
+    <t>SARKIN YAMMA (NIGER)</t>
+  </si>
+  <si>
     <t>SURABAYA (INDONESIA)</t>
   </si>
   <si>
+    <t>TAHOUA (NIGER)</t>
+  </si>
+  <si>
     <t>TEHRAN (IRAN)</t>
   </si>
   <si>
@@ -733,9 +808,18 @@
     <t>GHANA</t>
   </si>
   <si>
+    <t>TESSAOUA (NIGER)</t>
+  </si>
+  <si>
+    <t>TIBIRI (NIGER)</t>
+  </si>
+  <si>
     <t>TRABZON (TURKEY)</t>
   </si>
   <si>
+    <t>TSERNAOUA (NIGER)</t>
+  </si>
+  <si>
     <t>VENEZIA (ITALY)</t>
   </si>
   <si>
@@ -751,6 +835,9 @@
     <t>YOKOHAMA (JAPAN)</t>
   </si>
   <si>
+    <t>ZINDER (NIGER)</t>
+  </si>
+  <si>
     <t>USAID</t>
   </si>
   <si>
@@ -808,6 +895,9 @@
     <t>Virtual Warehouse [DJIBOUTI]</t>
   </si>
   <si>
+    <t>Virtual Warehouse [EGYPT]</t>
+  </si>
+  <si>
     <t>Virtual Warehouse [ETHIOPIA]</t>
   </si>
   <si>
@@ -865,6 +955,9 @@
     <t>Virtual Warehouse [MAURITANIA]</t>
   </si>
   <si>
+    <t>Virtual Warehouse [MEXICO]</t>
+  </si>
+  <si>
     <t>Virtual Warehouse [MOROCCO]</t>
   </si>
   <si>
@@ -889,6 +982,9 @@
     <t>Virtual Warehouse [PAKISTAN]</t>
   </si>
   <si>
+    <t>Virtual Warehouse [ROMANIA]</t>
+  </si>
+  <si>
     <t>Virtual Warehouse [RUSSIA]</t>
   </si>
   <si>
@@ -916,6 +1012,9 @@
     <t>Virtual Warehouse [TOGO]</t>
   </si>
   <si>
+    <t>Virtual Warehouse [TUNISIA]</t>
+  </si>
+  <si>
     <t>Virtual Warehouse [TURKEY]</t>
   </si>
   <si>
@@ -929,6 +1028,9 @@
   </si>
   <si>
     <t>Virtual Warehouse [VIETNAM]</t>
+  </si>
+  <si>
+    <t>Virtual Warehouse [SAUDI ARABIA]</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P233"/>
+  <dimension ref="A1:P266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
@@ -5567,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="N104" t="s">
         <v>21</v>
@@ -5594,20 +5696,20 @@
         <v>146</v>
       </c>
       <c r="H105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I105" t="s">
         <v>19</v>
       </c>
       <c r="J105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="N105" t="s">
         <v>21</v>
@@ -5647,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="N106" t="s">
         <v>21</v>
@@ -5674,20 +5776,20 @@
         <v>146</v>
       </c>
       <c r="H107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I107" t="s">
         <v>19</v>
       </c>
       <c r="J107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s"/>
       <c r="L107" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N107" t="s">
         <v>21</v>
@@ -5727,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="N108" t="s">
         <v>21</v>
@@ -5754,13 +5856,13 @@
         <v>146</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I109" t="s">
         <v>19</v>
       </c>
       <c r="J109" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" s="2" t="n">
@@ -5794,20 +5896,20 @@
         <v>146</v>
       </c>
       <c r="H110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I110" t="s">
         <v>19</v>
       </c>
       <c r="J110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N110" t="s">
         <v>21</v>
@@ -5834,20 +5936,20 @@
         <v>146</v>
       </c>
       <c r="H111" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I111" t="s">
         <v>19</v>
       </c>
       <c r="J111" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N111" t="s">
         <v>21</v>
@@ -5887,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N112" t="s">
         <v>21</v>
@@ -5927,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N113" t="s">
         <v>21</v>
@@ -5967,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="N114" t="s">
         <v>21</v>
@@ -5994,20 +6096,20 @@
         <v>146</v>
       </c>
       <c r="H115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I115" t="s">
         <v>19</v>
       </c>
       <c r="J115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K115" t="s"/>
       <c r="L115" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="N115" t="s">
         <v>21</v>
@@ -6047,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="N116" t="s">
         <v>21</v>
@@ -6087,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N117" t="s">
         <v>21</v>
@@ -6127,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="N118" t="s">
         <v>21</v>
@@ -6154,20 +6256,20 @@
         <v>146</v>
       </c>
       <c r="H119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I119" t="s">
         <v>19</v>
       </c>
       <c r="J119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K119" t="s"/>
       <c r="L119" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="N119" t="s">
         <v>21</v>
@@ -6194,20 +6296,20 @@
         <v>146</v>
       </c>
       <c r="H120" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I120" t="s">
         <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K120" t="s"/>
       <c r="L120" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="N120" t="s">
         <v>21</v>
@@ -6234,20 +6336,20 @@
         <v>146</v>
       </c>
       <c r="H121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I121" t="s">
         <v>19</v>
       </c>
       <c r="J121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K121" t="s"/>
       <c r="L121" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N121" t="s">
         <v>21</v>
@@ -6274,20 +6376,20 @@
         <v>146</v>
       </c>
       <c r="H122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I122" t="s">
         <v>19</v>
       </c>
       <c r="J122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K122" t="s"/>
       <c r="L122" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N122" t="s">
         <v>21</v>
@@ -6314,20 +6416,20 @@
         <v>146</v>
       </c>
       <c r="H123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I123" t="s">
         <v>19</v>
       </c>
       <c r="J123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K123" t="s"/>
       <c r="L123" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="N123" t="s">
         <v>21</v>
@@ -6354,20 +6456,20 @@
         <v>146</v>
       </c>
       <c r="H124" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I124" t="s">
         <v>19</v>
       </c>
       <c r="J124" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K124" t="s"/>
       <c r="L124" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N124" t="s">
         <v>21</v>
@@ -6394,20 +6496,20 @@
         <v>146</v>
       </c>
       <c r="H125" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I125" t="s">
         <v>19</v>
       </c>
       <c r="J125" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K125" t="s"/>
       <c r="L125" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N125" t="s">
         <v>21</v>
@@ -6434,20 +6536,20 @@
         <v>146</v>
       </c>
       <c r="H126" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I126" t="s">
         <v>19</v>
       </c>
       <c r="J126" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K126" t="s"/>
       <c r="L126" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="N126" t="s">
         <v>21</v>
@@ -6474,20 +6576,20 @@
         <v>146</v>
       </c>
       <c r="H127" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I127" t="s">
         <v>19</v>
       </c>
       <c r="J127" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K127" t="s"/>
       <c r="L127" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="N127" t="s">
         <v>21</v>
@@ -6514,20 +6616,20 @@
         <v>146</v>
       </c>
       <c r="H128" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I128" t="s">
         <v>19</v>
       </c>
       <c r="J128" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K128" t="s"/>
       <c r="L128" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="N128" t="s">
         <v>21</v>
@@ -6554,20 +6656,20 @@
         <v>146</v>
       </c>
       <c r="H129" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I129" t="s">
         <v>19</v>
       </c>
       <c r="J129" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K129" t="s"/>
       <c r="L129" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="N129" t="s">
         <v>21</v>
@@ -6594,20 +6696,20 @@
         <v>146</v>
       </c>
       <c r="H130" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K130" t="s"/>
       <c r="L130" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N130" t="s">
         <v>21</v>
@@ -6634,20 +6736,20 @@
         <v>146</v>
       </c>
       <c r="H131" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I131" t="s">
         <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K131" t="s"/>
       <c r="L131" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N131" t="s">
         <v>21</v>
@@ -6674,20 +6776,20 @@
         <v>146</v>
       </c>
       <c r="H132" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
       </c>
       <c r="J132" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K132" t="s"/>
       <c r="L132" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="N132" t="s">
         <v>21</v>
@@ -6714,20 +6816,20 @@
         <v>146</v>
       </c>
       <c r="H133" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I133" t="s">
         <v>19</v>
       </c>
       <c r="J133" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K133" t="s"/>
       <c r="L133" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N133" t="s">
         <v>21</v>
@@ -6754,20 +6856,20 @@
         <v>146</v>
       </c>
       <c r="H134" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I134" t="s">
         <v>19</v>
       </c>
       <c r="J134" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K134" t="s"/>
       <c r="L134" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="N134" t="s">
         <v>21</v>
@@ -6794,20 +6896,20 @@
         <v>146</v>
       </c>
       <c r="H135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I135" t="s">
         <v>19</v>
       </c>
       <c r="J135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K135" t="s"/>
       <c r="L135" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N135" t="s">
         <v>21</v>
@@ -6834,20 +6936,20 @@
         <v>146</v>
       </c>
       <c r="H136" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I136" t="s">
         <v>19</v>
       </c>
       <c r="J136" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K136" t="s"/>
       <c r="L136" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N136" t="s">
         <v>21</v>
@@ -6874,20 +6976,20 @@
         <v>146</v>
       </c>
       <c r="H137" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I137" t="s">
         <v>19</v>
       </c>
       <c r="J137" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K137" t="s"/>
       <c r="L137" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="N137" t="s">
         <v>21</v>
@@ -6914,20 +7016,20 @@
         <v>146</v>
       </c>
       <c r="H138" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I138" t="s">
         <v>19</v>
       </c>
       <c r="J138" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K138" t="s"/>
       <c r="L138" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="N138" t="s">
         <v>21</v>
@@ -6954,20 +7056,20 @@
         <v>146</v>
       </c>
       <c r="H139" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I139" t="s">
         <v>19</v>
       </c>
       <c r="J139" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K139" t="s"/>
       <c r="L139" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="N139" t="s">
         <v>21</v>
@@ -6994,20 +7096,20 @@
         <v>146</v>
       </c>
       <c r="H140" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I140" t="s">
         <v>19</v>
       </c>
       <c r="J140" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K140" t="s"/>
       <c r="L140" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N140" t="s">
         <v>21</v>
@@ -7034,20 +7136,20 @@
         <v>146</v>
       </c>
       <c r="H141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I141" t="s">
         <v>19</v>
       </c>
       <c r="J141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K141" t="s"/>
       <c r="L141" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M141" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N141" t="s">
         <v>21</v>
@@ -7074,20 +7176,20 @@
         <v>146</v>
       </c>
       <c r="H142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I142" t="s">
         <v>19</v>
       </c>
       <c r="J142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K142" t="s"/>
       <c r="L142" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="N142" t="s">
         <v>21</v>
@@ -7114,20 +7216,20 @@
         <v>146</v>
       </c>
       <c r="H143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I143" t="s">
         <v>19</v>
       </c>
       <c r="J143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K143" t="s"/>
       <c r="L143" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="N143" t="s">
         <v>21</v>
@@ -7154,20 +7256,20 @@
         <v>146</v>
       </c>
       <c r="H144" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I144" t="s">
         <v>19</v>
       </c>
       <c r="J144" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K144" t="s"/>
       <c r="L144" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="N144" t="s">
         <v>21</v>
@@ -7194,20 +7296,20 @@
         <v>146</v>
       </c>
       <c r="H145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I145" t="s">
         <v>19</v>
       </c>
       <c r="J145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K145" t="s"/>
       <c r="L145" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N145" t="s">
         <v>21</v>
@@ -7234,20 +7336,20 @@
         <v>146</v>
       </c>
       <c r="H146" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I146" t="s">
         <v>19</v>
       </c>
       <c r="J146" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K146" t="s"/>
       <c r="L146" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="N146" t="s">
         <v>21</v>
@@ -7274,20 +7376,20 @@
         <v>146</v>
       </c>
       <c r="H147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I147" t="s">
         <v>19</v>
       </c>
       <c r="J147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K147" t="s"/>
       <c r="L147" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="N147" t="s">
         <v>21</v>
@@ -7314,20 +7416,20 @@
         <v>146</v>
       </c>
       <c r="H148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I148" t="s">
         <v>19</v>
       </c>
       <c r="J148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K148" t="s"/>
       <c r="L148" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="N148" t="s">
         <v>21</v>
@@ -7354,20 +7456,20 @@
         <v>146</v>
       </c>
       <c r="H149" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I149" t="s">
         <v>19</v>
       </c>
       <c r="J149" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K149" t="s"/>
       <c r="L149" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="N149" t="s">
         <v>21</v>
@@ -7394,20 +7496,20 @@
         <v>146</v>
       </c>
       <c r="H150" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I150" t="s">
         <v>19</v>
       </c>
       <c r="J150" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K150" t="s"/>
       <c r="L150" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M150" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="N150" t="s">
         <v>21</v>
@@ -7434,20 +7536,20 @@
         <v>146</v>
       </c>
       <c r="H151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I151" t="s">
         <v>19</v>
       </c>
       <c r="J151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K151" t="s"/>
       <c r="L151" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N151" t="s">
         <v>21</v>
@@ -7474,20 +7576,20 @@
         <v>146</v>
       </c>
       <c r="H152" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I152" t="s">
         <v>19</v>
       </c>
       <c r="J152" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K152" t="s"/>
       <c r="L152" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="N152" t="s">
         <v>21</v>
@@ -7514,20 +7616,20 @@
         <v>146</v>
       </c>
       <c r="H153" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
       </c>
       <c r="J153" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K153" t="s"/>
       <c r="L153" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N153" t="s">
         <v>21</v>
@@ -7554,13 +7656,13 @@
         <v>146</v>
       </c>
       <c r="H154" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I154" t="s">
         <v>19</v>
       </c>
       <c r="J154" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K154" t="s"/>
       <c r="L154" s="2" t="n">
@@ -7594,20 +7696,20 @@
         <v>146</v>
       </c>
       <c r="H155" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I155" t="s">
         <v>19</v>
       </c>
       <c r="J155" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K155" t="s"/>
       <c r="L155" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="N155" t="s">
         <v>21</v>
@@ -7634,20 +7736,20 @@
         <v>146</v>
       </c>
       <c r="H156" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I156" t="s">
         <v>19</v>
       </c>
       <c r="J156" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K156" t="s"/>
       <c r="L156" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N156" t="s">
         <v>21</v>
@@ -7674,20 +7776,20 @@
         <v>146</v>
       </c>
       <c r="H157" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
       </c>
       <c r="J157" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K157" t="s"/>
       <c r="L157" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N157" t="s">
         <v>21</v>
@@ -7714,20 +7816,20 @@
         <v>146</v>
       </c>
       <c r="H158" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I158" t="s">
         <v>19</v>
       </c>
       <c r="J158" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K158" t="s"/>
       <c r="L158" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N158" t="s">
         <v>21</v>
@@ -7754,20 +7856,20 @@
         <v>146</v>
       </c>
       <c r="H159" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I159" t="s">
         <v>19</v>
       </c>
       <c r="J159" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K159" t="s"/>
       <c r="L159" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M159" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="N159" t="s">
         <v>21</v>
@@ -7794,20 +7896,20 @@
         <v>146</v>
       </c>
       <c r="H160" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I160" t="s">
         <v>19</v>
       </c>
       <c r="J160" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K160" t="s"/>
       <c r="L160" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M160" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="N160" t="s">
         <v>21</v>
@@ -7834,20 +7936,20 @@
         <v>146</v>
       </c>
       <c r="H161" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I161" t="s">
         <v>19</v>
       </c>
       <c r="J161" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K161" t="s"/>
       <c r="L161" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N161" t="s">
         <v>21</v>
@@ -7874,20 +7976,20 @@
         <v>146</v>
       </c>
       <c r="H162" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I162" t="s">
         <v>19</v>
       </c>
       <c r="J162" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K162" t="s"/>
       <c r="L162" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="N162" t="s">
         <v>21</v>
@@ -7914,20 +8016,20 @@
         <v>146</v>
       </c>
       <c r="H163" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I163" t="s">
         <v>19</v>
       </c>
       <c r="J163" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K163" t="s"/>
       <c r="L163" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="N163" t="s">
         <v>21</v>
@@ -7954,20 +8056,20 @@
         <v>146</v>
       </c>
       <c r="H164" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I164" t="s">
         <v>19</v>
       </c>
       <c r="J164" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K164" t="s"/>
       <c r="L164" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M164" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="N164" t="s">
         <v>21</v>
@@ -7994,20 +8096,20 @@
         <v>146</v>
       </c>
       <c r="H165" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I165" t="s">
         <v>19</v>
       </c>
       <c r="J165" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K165" t="s"/>
       <c r="L165" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N165" t="s">
         <v>21</v>
@@ -8034,20 +8136,20 @@
         <v>146</v>
       </c>
       <c r="H166" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I166" t="s">
         <v>19</v>
       </c>
       <c r="J166" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K166" t="s"/>
       <c r="L166" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="N166" t="s">
         <v>21</v>
@@ -8074,20 +8176,20 @@
         <v>146</v>
       </c>
       <c r="H167" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I167" t="s">
         <v>19</v>
       </c>
       <c r="J167" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K167" t="s"/>
       <c r="L167" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M167" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N167" t="s">
         <v>21</v>
@@ -8114,20 +8216,20 @@
         <v>146</v>
       </c>
       <c r="H168" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I168" t="s">
         <v>19</v>
       </c>
       <c r="J168" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K168" t="s"/>
       <c r="L168" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M168" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="N168" t="s">
         <v>21</v>
@@ -8154,20 +8256,20 @@
         <v>146</v>
       </c>
       <c r="H169" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I169" t="s">
         <v>19</v>
       </c>
       <c r="J169" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K169" t="s"/>
       <c r="L169" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="N169" t="s">
         <v>21</v>
@@ -8194,20 +8296,20 @@
         <v>146</v>
       </c>
       <c r="H170" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I170" t="s">
         <v>19</v>
       </c>
       <c r="J170" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K170" t="s"/>
       <c r="L170" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M170" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="N170" t="s">
         <v>21</v>
@@ -8234,20 +8336,20 @@
         <v>146</v>
       </c>
       <c r="H171" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I171" t="s">
         <v>19</v>
       </c>
       <c r="J171" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K171" t="s"/>
       <c r="L171" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="N171" t="s">
         <v>21</v>
@@ -8274,20 +8376,20 @@
         <v>146</v>
       </c>
       <c r="H172" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I172" t="s">
         <v>19</v>
       </c>
       <c r="J172" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K172" t="s"/>
       <c r="L172" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="N172" t="s">
         <v>21</v>
@@ -8314,20 +8416,20 @@
         <v>146</v>
       </c>
       <c r="H173" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I173" t="s">
         <v>19</v>
       </c>
       <c r="J173" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K173" t="s"/>
       <c r="L173" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="N173" t="s">
         <v>21</v>
@@ -8354,20 +8456,20 @@
         <v>146</v>
       </c>
       <c r="H174" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I174" t="s">
         <v>19</v>
       </c>
       <c r="J174" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K174" t="s"/>
       <c r="L174" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="N174" t="s">
         <v>21</v>
@@ -8394,20 +8496,20 @@
         <v>146</v>
       </c>
       <c r="H175" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I175" t="s">
         <v>19</v>
       </c>
       <c r="J175" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K175" t="s"/>
       <c r="L175" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="N175" t="s">
         <v>21</v>
@@ -8431,22 +8533,24 @@
       <c r="E176" t="s"/>
       <c r="F176" t="s"/>
       <c r="G176" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="H176" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I176" t="s">
         <v>19</v>
       </c>
       <c r="J176" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K176" t="s"/>
       <c r="L176" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M176" t="s"/>
+      <c r="M176" t="s">
+        <v>26</v>
+      </c>
       <c r="N176" t="s">
         <v>21</v>
       </c>
@@ -8468,30 +8572,32 @@
       <c r="D177" t="s"/>
       <c r="E177" t="s"/>
       <c r="F177" t="s"/>
-      <c r="G177" t="s"/>
+      <c r="G177" t="s">
+        <v>146</v>
+      </c>
       <c r="H177" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J177" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K177" t="s"/>
       <c r="L177" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M177" t="s"/>
+      <c r="M177" t="s">
+        <v>26</v>
+      </c>
       <c r="N177" t="s">
         <v>21</v>
       </c>
       <c r="O177" t="s">
-        <v>19</v>
-      </c>
-      <c r="P177" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P177" t="s"/>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" t="s">
@@ -8506,30 +8612,32 @@
       <c r="D178" t="s"/>
       <c r="E178" t="s"/>
       <c r="F178" t="s"/>
-      <c r="G178" t="s"/>
+      <c r="G178" t="s">
+        <v>146</v>
+      </c>
       <c r="H178" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I178" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J178" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K178" t="s"/>
       <c r="L178" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M178" t="s"/>
+      <c r="M178" t="s">
+        <v>32</v>
+      </c>
       <c r="N178" t="s">
         <v>21</v>
       </c>
       <c r="O178" t="s">
-        <v>19</v>
-      </c>
-      <c r="P178" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P178" t="s"/>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" t="s">
@@ -8544,30 +8652,32 @@
       <c r="D179" t="s"/>
       <c r="E179" t="s"/>
       <c r="F179" t="s"/>
-      <c r="G179" t="s"/>
+      <c r="G179" t="s">
+        <v>146</v>
+      </c>
       <c r="H179" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I179" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J179" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K179" t="s"/>
       <c r="L179" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M179" t="s"/>
+      <c r="M179" t="s">
+        <v>20</v>
+      </c>
       <c r="N179" t="s">
         <v>21</v>
       </c>
       <c r="O179" t="s">
-        <v>19</v>
-      </c>
-      <c r="P179" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P179" t="s"/>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" t="s">
@@ -8582,30 +8692,32 @@
       <c r="D180" t="s"/>
       <c r="E180" t="s"/>
       <c r="F180" t="s"/>
-      <c r="G180" t="s"/>
+      <c r="G180" t="s">
+        <v>146</v>
+      </c>
       <c r="H180" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I180" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J180" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K180" t="s"/>
       <c r="L180" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M180" t="s"/>
+      <c r="M180" t="s">
+        <v>244</v>
+      </c>
       <c r="N180" t="s">
         <v>21</v>
       </c>
       <c r="O180" t="s">
-        <v>19</v>
-      </c>
-      <c r="P180" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P180" t="s"/>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" t="s">
@@ -8620,30 +8732,32 @@
       <c r="D181" t="s"/>
       <c r="E181" t="s"/>
       <c r="F181" t="s"/>
-      <c r="G181" t="s"/>
+      <c r="G181" t="s">
+        <v>146</v>
+      </c>
       <c r="H181" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J181" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K181" t="s"/>
       <c r="L181" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M181" t="s"/>
+      <c r="M181" t="s">
+        <v>68</v>
+      </c>
       <c r="N181" t="s">
         <v>21</v>
       </c>
       <c r="O181" t="s">
-        <v>19</v>
-      </c>
-      <c r="P181" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P181" t="s"/>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" t="s">
@@ -8658,30 +8772,32 @@
       <c r="D182" t="s"/>
       <c r="E182" t="s"/>
       <c r="F182" t="s"/>
-      <c r="G182" t="s"/>
+      <c r="G182" t="s">
+        <v>146</v>
+      </c>
       <c r="H182" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I182" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J182" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K182" t="s"/>
       <c r="L182" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M182" t="s"/>
+      <c r="M182" t="s">
+        <v>202</v>
+      </c>
       <c r="N182" t="s">
         <v>21</v>
       </c>
       <c r="O182" t="s">
-        <v>19</v>
-      </c>
-      <c r="P182" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P182" t="s"/>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" t="s">
@@ -8696,30 +8812,32 @@
       <c r="D183" t="s"/>
       <c r="E183" t="s"/>
       <c r="F183" t="s"/>
-      <c r="G183" t="s"/>
+      <c r="G183" t="s">
+        <v>146</v>
+      </c>
       <c r="H183" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I183" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J183" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K183" t="s"/>
       <c r="L183" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M183" t="s"/>
+      <c r="M183" t="s">
+        <v>20</v>
+      </c>
       <c r="N183" t="s">
         <v>21</v>
       </c>
       <c r="O183" t="s">
-        <v>19</v>
-      </c>
-      <c r="P183" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P183" t="s"/>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" t="s">
@@ -8734,30 +8852,32 @@
       <c r="D184" t="s"/>
       <c r="E184" t="s"/>
       <c r="F184" t="s"/>
-      <c r="G184" t="s"/>
+      <c r="G184" t="s">
+        <v>146</v>
+      </c>
       <c r="H184" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I184" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J184" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K184" t="s"/>
       <c r="L184" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M184" t="s"/>
+      <c r="M184" t="s">
+        <v>249</v>
+      </c>
       <c r="N184" t="s">
         <v>21</v>
       </c>
       <c r="O184" t="s">
-        <v>19</v>
-      </c>
-      <c r="P184" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P184" t="s"/>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" t="s">
@@ -8772,30 +8892,32 @@
       <c r="D185" t="s"/>
       <c r="E185" t="s"/>
       <c r="F185" t="s"/>
-      <c r="G185" t="s"/>
+      <c r="G185" t="s">
+        <v>146</v>
+      </c>
       <c r="H185" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I185" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J185" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K185" t="s"/>
       <c r="L185" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M185" t="s"/>
+      <c r="M185" t="s">
+        <v>68</v>
+      </c>
       <c r="N185" t="s">
         <v>21</v>
       </c>
       <c r="O185" t="s">
-        <v>19</v>
-      </c>
-      <c r="P185" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P185" t="s"/>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
@@ -8810,30 +8932,32 @@
       <c r="D186" t="s"/>
       <c r="E186" t="s"/>
       <c r="F186" t="s"/>
-      <c r="G186" t="s"/>
+      <c r="G186" t="s">
+        <v>146</v>
+      </c>
       <c r="H186" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I186" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J186" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K186" t="s"/>
       <c r="L186" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M186" t="s"/>
+      <c r="M186" t="s">
+        <v>252</v>
+      </c>
       <c r="N186" t="s">
         <v>21</v>
       </c>
       <c r="O186" t="s">
-        <v>19</v>
-      </c>
-      <c r="P186" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P186" t="s"/>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" t="s">
@@ -8848,30 +8972,32 @@
       <c r="D187" t="s"/>
       <c r="E187" t="s"/>
       <c r="F187" t="s"/>
-      <c r="G187" t="s"/>
+      <c r="G187" t="s">
+        <v>146</v>
+      </c>
       <c r="H187" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I187" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J187" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K187" t="s"/>
       <c r="L187" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M187" t="s"/>
+      <c r="M187" t="s">
+        <v>208</v>
+      </c>
       <c r="N187" t="s">
         <v>21</v>
       </c>
       <c r="O187" t="s">
-        <v>19</v>
-      </c>
-      <c r="P187" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P187" t="s"/>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" t="s">
@@ -8886,30 +9012,32 @@
       <c r="D188" t="s"/>
       <c r="E188" t="s"/>
       <c r="F188" t="s"/>
-      <c r="G188" t="s"/>
+      <c r="G188" t="s">
+        <v>146</v>
+      </c>
       <c r="H188" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I188" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J188" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K188" t="s"/>
       <c r="L188" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M188" t="s"/>
+      <c r="M188" t="s">
+        <v>50</v>
+      </c>
       <c r="N188" t="s">
         <v>21</v>
       </c>
       <c r="O188" t="s">
-        <v>19</v>
-      </c>
-      <c r="P188" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P188" t="s"/>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" t="s">
@@ -8924,30 +9052,32 @@
       <c r="D189" t="s"/>
       <c r="E189" t="s"/>
       <c r="F189" t="s"/>
-      <c r="G189" t="s"/>
+      <c r="G189" t="s">
+        <v>146</v>
+      </c>
       <c r="H189" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I189" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J189" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K189" t="s"/>
       <c r="L189" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M189" t="s"/>
+      <c r="M189" t="s">
+        <v>53</v>
+      </c>
       <c r="N189" t="s">
         <v>21</v>
       </c>
       <c r="O189" t="s">
-        <v>19</v>
-      </c>
-      <c r="P189" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P189" t="s"/>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" t="s">
@@ -8962,30 +9092,32 @@
       <c r="D190" t="s"/>
       <c r="E190" t="s"/>
       <c r="F190" t="s"/>
-      <c r="G190" t="s"/>
+      <c r="G190" t="s">
+        <v>146</v>
+      </c>
       <c r="H190" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I190" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J190" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K190" t="s"/>
       <c r="L190" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M190" t="s"/>
+      <c r="M190" t="s">
+        <v>68</v>
+      </c>
       <c r="N190" t="s">
         <v>21</v>
       </c>
       <c r="O190" t="s">
-        <v>19</v>
-      </c>
-      <c r="P190" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P190" t="s"/>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" t="s">
@@ -9000,30 +9132,32 @@
       <c r="D191" t="s"/>
       <c r="E191" t="s"/>
       <c r="F191" t="s"/>
-      <c r="G191" t="s"/>
+      <c r="G191" t="s">
+        <v>146</v>
+      </c>
       <c r="H191" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I191" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J191" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K191" t="s"/>
       <c r="L191" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M191" t="s"/>
+      <c r="M191" t="s">
+        <v>59</v>
+      </c>
       <c r="N191" t="s">
         <v>21</v>
       </c>
       <c r="O191" t="s">
-        <v>19</v>
-      </c>
-      <c r="P191" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P191" t="s"/>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" t="s">
@@ -9038,30 +9172,32 @@
       <c r="D192" t="s"/>
       <c r="E192" t="s"/>
       <c r="F192" t="s"/>
-      <c r="G192" t="s"/>
+      <c r="G192" t="s">
+        <v>146</v>
+      </c>
       <c r="H192" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I192" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J192" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K192" t="s"/>
       <c r="L192" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M192" t="s"/>
+      <c r="M192" t="s">
+        <v>157</v>
+      </c>
       <c r="N192" t="s">
         <v>21</v>
       </c>
       <c r="O192" t="s">
-        <v>19</v>
-      </c>
-      <c r="P192" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P192" t="s"/>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" t="s">
@@ -9076,30 +9212,32 @@
       <c r="D193" t="s"/>
       <c r="E193" t="s"/>
       <c r="F193" t="s"/>
-      <c r="G193" t="s"/>
+      <c r="G193" t="s">
+        <v>146</v>
+      </c>
       <c r="H193" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I193" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J193" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K193" t="s"/>
       <c r="L193" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M193" t="s"/>
+      <c r="M193" t="s">
+        <v>59</v>
+      </c>
       <c r="N193" t="s">
         <v>21</v>
       </c>
       <c r="O193" t="s">
-        <v>19</v>
-      </c>
-      <c r="P193" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P193" t="s"/>
     </row>
     <row r="194" spans="1:16">
       <c r="A194" t="s">
@@ -9114,30 +9252,32 @@
       <c r="D194" t="s"/>
       <c r="E194" t="s"/>
       <c r="F194" t="s"/>
-      <c r="G194" t="s"/>
+      <c r="G194" t="s">
+        <v>146</v>
+      </c>
       <c r="H194" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I194" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J194" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K194" t="s"/>
       <c r="L194" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M194" t="s"/>
+      <c r="M194" t="s">
+        <v>261</v>
+      </c>
       <c r="N194" t="s">
         <v>21</v>
       </c>
       <c r="O194" t="s">
-        <v>19</v>
-      </c>
-      <c r="P194" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P194" t="s"/>
     </row>
     <row r="195" spans="1:16">
       <c r="A195" t="s">
@@ -9152,30 +9292,32 @@
       <c r="D195" t="s"/>
       <c r="E195" t="s"/>
       <c r="F195" t="s"/>
-      <c r="G195" t="s"/>
+      <c r="G195" t="s">
+        <v>146</v>
+      </c>
       <c r="H195" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I195" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J195" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K195" t="s"/>
       <c r="L195" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M195" t="s"/>
+      <c r="M195" t="s">
+        <v>263</v>
+      </c>
       <c r="N195" t="s">
         <v>21</v>
       </c>
       <c r="O195" t="s">
-        <v>19</v>
-      </c>
-      <c r="P195" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P195" t="s"/>
     </row>
     <row r="196" spans="1:16">
       <c r="A196" t="s">
@@ -9190,30 +9332,32 @@
       <c r="D196" t="s"/>
       <c r="E196" t="s"/>
       <c r="F196" t="s"/>
-      <c r="G196" t="s"/>
+      <c r="G196" t="s">
+        <v>146</v>
+      </c>
       <c r="H196" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I196" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J196" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K196" t="s"/>
       <c r="L196" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M196" t="s"/>
+      <c r="M196" t="s">
+        <v>59</v>
+      </c>
       <c r="N196" t="s">
         <v>21</v>
       </c>
       <c r="O196" t="s">
-        <v>19</v>
-      </c>
-      <c r="P196" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P196" t="s"/>
     </row>
     <row r="197" spans="1:16">
       <c r="A197" t="s">
@@ -9228,30 +9372,32 @@
       <c r="D197" t="s"/>
       <c r="E197" t="s"/>
       <c r="F197" t="s"/>
-      <c r="G197" t="s"/>
+      <c r="G197" t="s">
+        <v>146</v>
+      </c>
       <c r="H197" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I197" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J197" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K197" t="s"/>
       <c r="L197" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M197" t="s"/>
+      <c r="M197" t="s">
+        <v>59</v>
+      </c>
       <c r="N197" t="s">
         <v>21</v>
       </c>
       <c r="O197" t="s">
-        <v>19</v>
-      </c>
-      <c r="P197" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P197" t="s"/>
     </row>
     <row r="198" spans="1:16">
       <c r="A198" t="s">
@@ -9266,30 +9412,32 @@
       <c r="D198" t="s"/>
       <c r="E198" t="s"/>
       <c r="F198" t="s"/>
-      <c r="G198" t="s"/>
+      <c r="G198" t="s">
+        <v>146</v>
+      </c>
       <c r="H198" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I198" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J198" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K198" t="s"/>
       <c r="L198" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M198" t="s"/>
+      <c r="M198" t="s">
+        <v>193</v>
+      </c>
       <c r="N198" t="s">
         <v>21</v>
       </c>
       <c r="O198" t="s">
-        <v>19</v>
-      </c>
-      <c r="P198" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P198" t="s"/>
     </row>
     <row r="199" spans="1:16">
       <c r="A199" t="s">
@@ -9304,30 +9452,32 @@
       <c r="D199" t="s"/>
       <c r="E199" t="s"/>
       <c r="F199" t="s"/>
-      <c r="G199" t="s"/>
+      <c r="G199" t="s">
+        <v>146</v>
+      </c>
       <c r="H199" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I199" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J199" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K199" t="s"/>
       <c r="L199" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M199" t="s"/>
+      <c r="M199" t="s">
+        <v>59</v>
+      </c>
       <c r="N199" t="s">
         <v>21</v>
       </c>
       <c r="O199" t="s">
-        <v>19</v>
-      </c>
-      <c r="P199" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P199" t="s"/>
     </row>
     <row r="200" spans="1:16">
       <c r="A200" t="s">
@@ -9342,30 +9492,32 @@
       <c r="D200" t="s"/>
       <c r="E200" t="s"/>
       <c r="F200" t="s"/>
-      <c r="G200" t="s"/>
+      <c r="G200" t="s">
+        <v>146</v>
+      </c>
       <c r="H200" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I200" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J200" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K200" t="s"/>
       <c r="L200" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M200" t="s"/>
+      <c r="M200" t="s">
+        <v>269</v>
+      </c>
       <c r="N200" t="s">
         <v>21</v>
       </c>
       <c r="O200" t="s">
-        <v>19</v>
-      </c>
-      <c r="P200" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P200" t="s"/>
     </row>
     <row r="201" spans="1:16">
       <c r="A201" t="s">
@@ -9380,30 +9532,32 @@
       <c r="D201" t="s"/>
       <c r="E201" t="s"/>
       <c r="F201" t="s"/>
-      <c r="G201" t="s"/>
+      <c r="G201" t="s">
+        <v>146</v>
+      </c>
       <c r="H201" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I201" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J201" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K201" t="s"/>
       <c r="L201" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M201" t="s"/>
+      <c r="M201" t="s">
+        <v>271</v>
+      </c>
       <c r="N201" t="s">
         <v>21</v>
       </c>
       <c r="O201" t="s">
-        <v>19</v>
-      </c>
-      <c r="P201" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P201" t="s"/>
     </row>
     <row r="202" spans="1:16">
       <c r="A202" t="s">
@@ -9418,30 +9572,32 @@
       <c r="D202" t="s"/>
       <c r="E202" t="s"/>
       <c r="F202" t="s"/>
-      <c r="G202" t="s"/>
+      <c r="G202" t="s">
+        <v>146</v>
+      </c>
       <c r="H202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I202" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K202" t="s"/>
       <c r="L202" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M202" t="s"/>
+      <c r="M202" t="s">
+        <v>229</v>
+      </c>
       <c r="N202" t="s">
         <v>21</v>
       </c>
       <c r="O202" t="s">
-        <v>19</v>
-      </c>
-      <c r="P202" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P202" t="s"/>
     </row>
     <row r="203" spans="1:16">
       <c r="A203" t="s">
@@ -9456,30 +9612,32 @@
       <c r="D203" t="s"/>
       <c r="E203" t="s"/>
       <c r="F203" t="s"/>
-      <c r="G203" t="s"/>
+      <c r="G203" t="s">
+        <v>146</v>
+      </c>
       <c r="H203" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J203" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K203" t="s"/>
       <c r="L203" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M203" t="s"/>
+      <c r="M203" t="s">
+        <v>59</v>
+      </c>
       <c r="N203" t="s">
         <v>21</v>
       </c>
       <c r="O203" t="s">
-        <v>19</v>
-      </c>
-      <c r="P203" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P203" t="s"/>
     </row>
     <row r="204" spans="1:16">
       <c r="A204" t="s">
@@ -9494,12 +9652,14 @@
       <c r="D204" t="s"/>
       <c r="E204" t="s"/>
       <c r="F204" t="s"/>
-      <c r="G204" t="s"/>
+      <c r="G204" t="s">
+        <v>274</v>
+      </c>
       <c r="H204" t="s">
         <v>275</v>
       </c>
       <c r="I204" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J204" t="s">
         <v>275</v>
@@ -9513,11 +9673,9 @@
         <v>21</v>
       </c>
       <c r="O204" t="s">
-        <v>19</v>
-      </c>
-      <c r="P204" t="s">
-        <v>248</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P204" t="s"/>
     </row>
     <row r="205" spans="1:16">
       <c r="A205" t="s">
@@ -9554,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="P205" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -9572,13 +9730,13 @@
       <c r="F206" t="s"/>
       <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I206" t="s">
         <v>22</v>
       </c>
       <c r="J206" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K206" t="s"/>
       <c r="L206" s="2" t="n">
@@ -9592,7 +9750,7 @@
         <v>19</v>
       </c>
       <c r="P206" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -9610,13 +9768,13 @@
       <c r="F207" t="s"/>
       <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I207" t="s">
         <v>22</v>
       </c>
       <c r="J207" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K207" t="s"/>
       <c r="L207" s="2" t="n">
@@ -9630,7 +9788,7 @@
         <v>19</v>
       </c>
       <c r="P207" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -9648,13 +9806,13 @@
       <c r="F208" t="s"/>
       <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I208" t="s">
         <v>22</v>
       </c>
       <c r="J208" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K208" t="s"/>
       <c r="L208" s="2" t="n">
@@ -9668,7 +9826,7 @@
         <v>19</v>
       </c>
       <c r="P208" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -9686,13 +9844,13 @@
       <c r="F209" t="s"/>
       <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I209" t="s">
         <v>22</v>
       </c>
       <c r="J209" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K209" t="s"/>
       <c r="L209" s="2" t="n">
@@ -9706,7 +9864,7 @@
         <v>19</v>
       </c>
       <c r="P209" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -9724,13 +9882,13 @@
       <c r="F210" t="s"/>
       <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I210" t="s">
         <v>22</v>
       </c>
       <c r="J210" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K210" t="s"/>
       <c r="L210" s="2" t="n">
@@ -9744,7 +9902,7 @@
         <v>19</v>
       </c>
       <c r="P210" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -9762,13 +9920,13 @@
       <c r="F211" t="s"/>
       <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I211" t="s">
         <v>22</v>
       </c>
       <c r="J211" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K211" t="s"/>
       <c r="L211" s="2" t="n">
@@ -9782,7 +9940,7 @@
         <v>19</v>
       </c>
       <c r="P211" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -9800,13 +9958,13 @@
       <c r="F212" t="s"/>
       <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I212" t="s">
         <v>22</v>
       </c>
       <c r="J212" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K212" t="s"/>
       <c r="L212" s="2" t="n">
@@ -9820,7 +9978,7 @@
         <v>19</v>
       </c>
       <c r="P212" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -9838,13 +9996,13 @@
       <c r="F213" t="s"/>
       <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I213" t="s">
         <v>22</v>
       </c>
       <c r="J213" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K213" t="s"/>
       <c r="L213" s="2" t="n">
@@ -9858,7 +10016,7 @@
         <v>19</v>
       </c>
       <c r="P213" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -9876,13 +10034,13 @@
       <c r="F214" t="s"/>
       <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
       </c>
       <c r="J214" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K214" t="s"/>
       <c r="L214" s="2" t="n">
@@ -9896,7 +10054,7 @@
         <v>19</v>
       </c>
       <c r="P214" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -9914,13 +10072,13 @@
       <c r="F215" t="s"/>
       <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I215" t="s">
         <v>22</v>
       </c>
       <c r="J215" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K215" t="s"/>
       <c r="L215" s="2" t="n">
@@ -9934,7 +10092,7 @@
         <v>19</v>
       </c>
       <c r="P215" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -9952,13 +10110,13 @@
       <c r="F216" t="s"/>
       <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I216" t="s">
         <v>22</v>
       </c>
       <c r="J216" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K216" t="s"/>
       <c r="L216" s="2" t="n">
@@ -9972,7 +10130,7 @@
         <v>19</v>
       </c>
       <c r="P216" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -9990,13 +10148,13 @@
       <c r="F217" t="s"/>
       <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I217" t="s">
         <v>22</v>
       </c>
       <c r="J217" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K217" t="s"/>
       <c r="L217" s="2" t="n">
@@ -10010,7 +10168,7 @@
         <v>19</v>
       </c>
       <c r="P217" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -10028,13 +10186,13 @@
       <c r="F218" t="s"/>
       <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I218" t="s">
         <v>22</v>
       </c>
       <c r="J218" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K218" t="s"/>
       <c r="L218" s="2" t="n">
@@ -10048,7 +10206,7 @@
         <v>19</v>
       </c>
       <c r="P218" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -10066,13 +10224,13 @@
       <c r="F219" t="s"/>
       <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I219" t="s">
         <v>22</v>
       </c>
       <c r="J219" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K219" t="s"/>
       <c r="L219" s="2" t="n">
@@ -10086,7 +10244,7 @@
         <v>19</v>
       </c>
       <c r="P219" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -10104,13 +10262,13 @@
       <c r="F220" t="s"/>
       <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I220" t="s">
         <v>22</v>
       </c>
       <c r="J220" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K220" t="s"/>
       <c r="L220" s="2" t="n">
@@ -10124,7 +10282,7 @@
         <v>19</v>
       </c>
       <c r="P220" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -10142,13 +10300,13 @@
       <c r="F221" t="s"/>
       <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I221" t="s">
         <v>22</v>
       </c>
       <c r="J221" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K221" t="s"/>
       <c r="L221" s="2" t="n">
@@ -10162,7 +10320,7 @@
         <v>19</v>
       </c>
       <c r="P221" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -10180,13 +10338,13 @@
       <c r="F222" t="s"/>
       <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I222" t="s">
         <v>22</v>
       </c>
       <c r="J222" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K222" t="s"/>
       <c r="L222" s="2" t="n">
@@ -10200,7 +10358,7 @@
         <v>19</v>
       </c>
       <c r="P222" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -10218,13 +10376,13 @@
       <c r="F223" t="s"/>
       <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I223" t="s">
         <v>22</v>
       </c>
       <c r="J223" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K223" t="s"/>
       <c r="L223" s="2" t="n">
@@ -10238,7 +10396,7 @@
         <v>19</v>
       </c>
       <c r="P223" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -10256,13 +10414,13 @@
       <c r="F224" t="s"/>
       <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I224" t="s">
         <v>22</v>
       </c>
       <c r="J224" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K224" t="s"/>
       <c r="L224" s="2" t="n">
@@ -10276,7 +10434,7 @@
         <v>19</v>
       </c>
       <c r="P224" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -10294,13 +10452,13 @@
       <c r="F225" t="s"/>
       <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
       </c>
       <c r="J225" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K225" t="s"/>
       <c r="L225" s="2" t="n">
@@ -10314,7 +10472,7 @@
         <v>19</v>
       </c>
       <c r="P225" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -10332,13 +10490,13 @@
       <c r="F226" t="s"/>
       <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I226" t="s">
         <v>22</v>
       </c>
       <c r="J226" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K226" t="s"/>
       <c r="L226" s="2" t="n">
@@ -10352,7 +10510,7 @@
         <v>19</v>
       </c>
       <c r="P226" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -10370,13 +10528,13 @@
       <c r="F227" t="s"/>
       <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I227" t="s">
         <v>22</v>
       </c>
       <c r="J227" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K227" t="s"/>
       <c r="L227" s="2" t="n">
@@ -10390,7 +10548,7 @@
         <v>19</v>
       </c>
       <c r="P227" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -10408,13 +10566,13 @@
       <c r="F228" t="s"/>
       <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I228" t="s">
         <v>22</v>
       </c>
       <c r="J228" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K228" t="s"/>
       <c r="L228" s="2" t="n">
@@ -10428,7 +10586,7 @@
         <v>19</v>
       </c>
       <c r="P228" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -10446,13 +10604,13 @@
       <c r="F229" t="s"/>
       <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I229" t="s">
         <v>22</v>
       </c>
       <c r="J229" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K229" t="s"/>
       <c r="L229" s="2" t="n">
@@ -10466,7 +10624,7 @@
         <v>19</v>
       </c>
       <c r="P229" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -10484,13 +10642,13 @@
       <c r="F230" t="s"/>
       <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I230" t="s">
         <v>22</v>
       </c>
       <c r="J230" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K230" t="s"/>
       <c r="L230" s="2" t="n">
@@ -10504,7 +10662,7 @@
         <v>19</v>
       </c>
       <c r="P230" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -10522,13 +10680,13 @@
       <c r="F231" t="s"/>
       <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I231" t="s">
         <v>22</v>
       </c>
       <c r="J231" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K231" t="s"/>
       <c r="L231" s="2" t="n">
@@ -10542,7 +10700,7 @@
         <v>19</v>
       </c>
       <c r="P231" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -10560,13 +10718,13 @@
       <c r="F232" t="s"/>
       <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I232" t="s">
         <v>22</v>
       </c>
       <c r="J232" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K232" t="s"/>
       <c r="L232" s="2" t="n">
@@ -10580,7 +10738,7 @@
         <v>19</v>
       </c>
       <c r="P232" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -10598,13 +10756,13 @@
       <c r="F233" t="s"/>
       <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I233" t="s">
         <v>22</v>
       </c>
       <c r="J233" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K233" t="s"/>
       <c r="L233" s="2" t="n">
@@ -10618,7 +10776,1261 @@
         <v>19</v>
       </c>
       <c r="P233" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16">
+      <c r="A234" t="s">
+        <v>16</v>
+      </c>
+      <c r="B234" t="n">
+        <v>233</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D234" t="s"/>
+      <c r="E234" t="s"/>
+      <c r="F234" t="s"/>
+      <c r="G234" t="s"/>
+      <c r="H234" t="s">
+        <v>306</v>
+      </c>
+      <c r="I234" t="s">
+        <v>22</v>
+      </c>
+      <c r="J234" t="s">
+        <v>306</v>
+      </c>
+      <c r="K234" t="s"/>
+      <c r="L234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="s"/>
+      <c r="N234" t="s">
+        <v>21</v>
+      </c>
+      <c r="O234" t="s">
+        <v>19</v>
+      </c>
+      <c r="P234" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16">
+      <c r="A235" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" t="n">
+        <v>234</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D235" t="s"/>
+      <c r="E235" t="s"/>
+      <c r="F235" t="s"/>
+      <c r="G235" t="s"/>
+      <c r="H235" t="s">
+        <v>307</v>
+      </c>
+      <c r="I235" t="s">
+        <v>22</v>
+      </c>
+      <c r="J235" t="s">
+        <v>307</v>
+      </c>
+      <c r="K235" t="s"/>
+      <c r="L235" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="s"/>
+      <c r="N235" t="s">
+        <v>21</v>
+      </c>
+      <c r="O235" t="s">
+        <v>19</v>
+      </c>
+      <c r="P235" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16">
+      <c r="A236" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" t="n">
+        <v>235</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D236" t="s"/>
+      <c r="E236" t="s"/>
+      <c r="F236" t="s"/>
+      <c r="G236" t="s"/>
+      <c r="H236" t="s">
+        <v>308</v>
+      </c>
+      <c r="I236" t="s">
+        <v>22</v>
+      </c>
+      <c r="J236" t="s">
+        <v>308</v>
+      </c>
+      <c r="K236" t="s"/>
+      <c r="L236" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="s"/>
+      <c r="N236" t="s">
+        <v>21</v>
+      </c>
+      <c r="O236" t="s">
+        <v>19</v>
+      </c>
+      <c r="P236" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16">
+      <c r="A237" t="s">
+        <v>16</v>
+      </c>
+      <c r="B237" t="n">
+        <v>236</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D237" t="s"/>
+      <c r="E237" t="s"/>
+      <c r="F237" t="s"/>
+      <c r="G237" t="s"/>
+      <c r="H237" t="s">
+        <v>309</v>
+      </c>
+      <c r="I237" t="s">
+        <v>22</v>
+      </c>
+      <c r="J237" t="s">
+        <v>309</v>
+      </c>
+      <c r="K237" t="s"/>
+      <c r="L237" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="s"/>
+      <c r="N237" t="s">
+        <v>21</v>
+      </c>
+      <c r="O237" t="s">
+        <v>19</v>
+      </c>
+      <c r="P237" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16">
+      <c r="A238" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" t="n">
+        <v>237</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D238" t="s"/>
+      <c r="E238" t="s"/>
+      <c r="F238" t="s"/>
+      <c r="G238" t="s"/>
+      <c r="H238" t="s">
+        <v>310</v>
+      </c>
+      <c r="I238" t="s">
+        <v>22</v>
+      </c>
+      <c r="J238" t="s">
+        <v>310</v>
+      </c>
+      <c r="K238" t="s"/>
+      <c r="L238" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s"/>
+      <c r="N238" t="s">
+        <v>21</v>
+      </c>
+      <c r="O238" t="s">
+        <v>19</v>
+      </c>
+      <c r="P238" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
+      <c r="A239" t="s">
+        <v>16</v>
+      </c>
+      <c r="B239" t="n">
+        <v>238</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D239" t="s"/>
+      <c r="E239" t="s"/>
+      <c r="F239" t="s"/>
+      <c r="G239" t="s"/>
+      <c r="H239" t="s">
+        <v>311</v>
+      </c>
+      <c r="I239" t="s">
+        <v>22</v>
+      </c>
+      <c r="J239" t="s">
+        <v>311</v>
+      </c>
+      <c r="K239" t="s"/>
+      <c r="L239" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="s"/>
+      <c r="N239" t="s">
+        <v>21</v>
+      </c>
+      <c r="O239" t="s">
+        <v>19</v>
+      </c>
+      <c r="P239" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16">
+      <c r="A240" t="s">
+        <v>16</v>
+      </c>
+      <c r="B240" t="n">
+        <v>239</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D240" t="s"/>
+      <c r="E240" t="s"/>
+      <c r="F240" t="s"/>
+      <c r="G240" t="s"/>
+      <c r="H240" t="s">
+        <v>312</v>
+      </c>
+      <c r="I240" t="s">
+        <v>22</v>
+      </c>
+      <c r="J240" t="s">
+        <v>312</v>
+      </c>
+      <c r="K240" t="s"/>
+      <c r="L240" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="s"/>
+      <c r="N240" t="s">
+        <v>21</v>
+      </c>
+      <c r="O240" t="s">
+        <v>19</v>
+      </c>
+      <c r="P240" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16">
+      <c r="A241" t="s">
+        <v>16</v>
+      </c>
+      <c r="B241" t="n">
+        <v>240</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D241" t="s"/>
+      <c r="E241" t="s"/>
+      <c r="F241" t="s"/>
+      <c r="G241" t="s"/>
+      <c r="H241" t="s">
+        <v>313</v>
+      </c>
+      <c r="I241" t="s">
+        <v>22</v>
+      </c>
+      <c r="J241" t="s">
+        <v>313</v>
+      </c>
+      <c r="K241" t="s"/>
+      <c r="L241" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="s"/>
+      <c r="N241" t="s">
+        <v>21</v>
+      </c>
+      <c r="O241" t="s">
+        <v>19</v>
+      </c>
+      <c r="P241" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16">
+      <c r="A242" t="s">
+        <v>16</v>
+      </c>
+      <c r="B242" t="n">
+        <v>241</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D242" t="s"/>
+      <c r="E242" t="s"/>
+      <c r="F242" t="s"/>
+      <c r="G242" t="s"/>
+      <c r="H242" t="s">
+        <v>314</v>
+      </c>
+      <c r="I242" t="s">
+        <v>22</v>
+      </c>
+      <c r="J242" t="s">
+        <v>314</v>
+      </c>
+      <c r="K242" t="s"/>
+      <c r="L242" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="s"/>
+      <c r="N242" t="s">
+        <v>21</v>
+      </c>
+      <c r="O242" t="s">
+        <v>19</v>
+      </c>
+      <c r="P242" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16">
+      <c r="A243" t="s">
+        <v>16</v>
+      </c>
+      <c r="B243" t="n">
+        <v>242</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D243" t="s"/>
+      <c r="E243" t="s"/>
+      <c r="F243" t="s"/>
+      <c r="G243" t="s"/>
+      <c r="H243" t="s">
+        <v>315</v>
+      </c>
+      <c r="I243" t="s">
+        <v>22</v>
+      </c>
+      <c r="J243" t="s">
+        <v>315</v>
+      </c>
+      <c r="K243" t="s"/>
+      <c r="L243" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="s"/>
+      <c r="N243" t="s">
+        <v>21</v>
+      </c>
+      <c r="O243" t="s">
+        <v>19</v>
+      </c>
+      <c r="P243" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16">
+      <c r="A244" t="s">
+        <v>16</v>
+      </c>
+      <c r="B244" t="n">
+        <v>243</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D244" t="s"/>
+      <c r="E244" t="s"/>
+      <c r="F244" t="s"/>
+      <c r="G244" t="s"/>
+      <c r="H244" t="s">
+        <v>316</v>
+      </c>
+      <c r="I244" t="s">
+        <v>22</v>
+      </c>
+      <c r="J244" t="s">
+        <v>316</v>
+      </c>
+      <c r="K244" t="s"/>
+      <c r="L244" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="s"/>
+      <c r="N244" t="s">
+        <v>21</v>
+      </c>
+      <c r="O244" t="s">
+        <v>19</v>
+      </c>
+      <c r="P244" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16">
+      <c r="A245" t="s">
+        <v>16</v>
+      </c>
+      <c r="B245" t="n">
+        <v>244</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D245" t="s"/>
+      <c r="E245" t="s"/>
+      <c r="F245" t="s"/>
+      <c r="G245" t="s"/>
+      <c r="H245" t="s">
+        <v>317</v>
+      </c>
+      <c r="I245" t="s">
+        <v>22</v>
+      </c>
+      <c r="J245" t="s">
+        <v>317</v>
+      </c>
+      <c r="K245" t="s"/>
+      <c r="L245" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s"/>
+      <c r="N245" t="s">
+        <v>21</v>
+      </c>
+      <c r="O245" t="s">
+        <v>19</v>
+      </c>
+      <c r="P245" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16">
+      <c r="A246" t="s">
+        <v>16</v>
+      </c>
+      <c r="B246" t="n">
+        <v>245</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D246" t="s"/>
+      <c r="E246" t="s"/>
+      <c r="F246" t="s"/>
+      <c r="G246" t="s"/>
+      <c r="H246" t="s">
+        <v>318</v>
+      </c>
+      <c r="I246" t="s">
+        <v>22</v>
+      </c>
+      <c r="J246" t="s">
+        <v>318</v>
+      </c>
+      <c r="K246" t="s"/>
+      <c r="L246" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="s"/>
+      <c r="N246" t="s">
+        <v>21</v>
+      </c>
+      <c r="O246" t="s">
+        <v>19</v>
+      </c>
+      <c r="P246" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16">
+      <c r="A247" t="s">
+        <v>16</v>
+      </c>
+      <c r="B247" t="n">
+        <v>246</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D247" t="s"/>
+      <c r="E247" t="s"/>
+      <c r="F247" t="s"/>
+      <c r="G247" t="s"/>
+      <c r="H247" t="s">
+        <v>319</v>
+      </c>
+      <c r="I247" t="s">
+        <v>22</v>
+      </c>
+      <c r="J247" t="s">
+        <v>319</v>
+      </c>
+      <c r="K247" t="s"/>
+      <c r="L247" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="s"/>
+      <c r="N247" t="s">
+        <v>21</v>
+      </c>
+      <c r="O247" t="s">
+        <v>19</v>
+      </c>
+      <c r="P247" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16">
+      <c r="A248" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" t="n">
+        <v>247</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D248" t="s"/>
+      <c r="E248" t="s"/>
+      <c r="F248" t="s"/>
+      <c r="G248" t="s"/>
+      <c r="H248" t="s">
+        <v>320</v>
+      </c>
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
+      <c r="J248" t="s">
+        <v>320</v>
+      </c>
+      <c r="K248" t="s"/>
+      <c r="L248" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s"/>
+      <c r="N248" t="s">
+        <v>21</v>
+      </c>
+      <c r="O248" t="s">
+        <v>19</v>
+      </c>
+      <c r="P248" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16">
+      <c r="A249" t="s">
+        <v>16</v>
+      </c>
+      <c r="B249" t="n">
         <v>248</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D249" t="s"/>
+      <c r="E249" t="s"/>
+      <c r="F249" t="s"/>
+      <c r="G249" t="s"/>
+      <c r="H249" t="s">
+        <v>321</v>
+      </c>
+      <c r="I249" t="s">
+        <v>22</v>
+      </c>
+      <c r="J249" t="s">
+        <v>321</v>
+      </c>
+      <c r="K249" t="s"/>
+      <c r="L249" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="s"/>
+      <c r="N249" t="s">
+        <v>21</v>
+      </c>
+      <c r="O249" t="s">
+        <v>19</v>
+      </c>
+      <c r="P249" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16">
+      <c r="A250" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250" t="n">
+        <v>249</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D250" t="s"/>
+      <c r="E250" t="s"/>
+      <c r="F250" t="s"/>
+      <c r="G250" t="s"/>
+      <c r="H250" t="s">
+        <v>322</v>
+      </c>
+      <c r="I250" t="s">
+        <v>22</v>
+      </c>
+      <c r="J250" t="s">
+        <v>322</v>
+      </c>
+      <c r="K250" t="s"/>
+      <c r="L250" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="s"/>
+      <c r="N250" t="s">
+        <v>21</v>
+      </c>
+      <c r="O250" t="s">
+        <v>19</v>
+      </c>
+      <c r="P250" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16">
+      <c r="A251" t="s">
+        <v>16</v>
+      </c>
+      <c r="B251" t="n">
+        <v>250</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D251" t="s"/>
+      <c r="E251" t="s"/>
+      <c r="F251" t="s"/>
+      <c r="G251" t="s"/>
+      <c r="H251" t="s">
+        <v>323</v>
+      </c>
+      <c r="I251" t="s">
+        <v>22</v>
+      </c>
+      <c r="J251" t="s">
+        <v>323</v>
+      </c>
+      <c r="K251" t="s"/>
+      <c r="L251" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="s"/>
+      <c r="N251" t="s">
+        <v>21</v>
+      </c>
+      <c r="O251" t="s">
+        <v>19</v>
+      </c>
+      <c r="P251" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16">
+      <c r="A252" t="s">
+        <v>16</v>
+      </c>
+      <c r="B252" t="n">
+        <v>251</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D252" t="s"/>
+      <c r="E252" t="s"/>
+      <c r="F252" t="s"/>
+      <c r="G252" t="s"/>
+      <c r="H252" t="s">
+        <v>324</v>
+      </c>
+      <c r="I252" t="s">
+        <v>22</v>
+      </c>
+      <c r="J252" t="s">
+        <v>324</v>
+      </c>
+      <c r="K252" t="s"/>
+      <c r="L252" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="s"/>
+      <c r="N252" t="s">
+        <v>21</v>
+      </c>
+      <c r="O252" t="s">
+        <v>19</v>
+      </c>
+      <c r="P252" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16">
+      <c r="A253" t="s">
+        <v>16</v>
+      </c>
+      <c r="B253" t="n">
+        <v>252</v>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D253" t="s"/>
+      <c r="E253" t="s"/>
+      <c r="F253" t="s"/>
+      <c r="G253" t="s"/>
+      <c r="H253" t="s">
+        <v>325</v>
+      </c>
+      <c r="I253" t="s">
+        <v>22</v>
+      </c>
+      <c r="J253" t="s">
+        <v>325</v>
+      </c>
+      <c r="K253" t="s"/>
+      <c r="L253" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="s"/>
+      <c r="N253" t="s">
+        <v>21</v>
+      </c>
+      <c r="O253" t="s">
+        <v>19</v>
+      </c>
+      <c r="P253" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16">
+      <c r="A254" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" t="n">
+        <v>253</v>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D254" t="s"/>
+      <c r="E254" t="s"/>
+      <c r="F254" t="s"/>
+      <c r="G254" t="s"/>
+      <c r="H254" t="s">
+        <v>326</v>
+      </c>
+      <c r="I254" t="s">
+        <v>22</v>
+      </c>
+      <c r="J254" t="s">
+        <v>326</v>
+      </c>
+      <c r="K254" t="s"/>
+      <c r="L254" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s"/>
+      <c r="N254" t="s">
+        <v>21</v>
+      </c>
+      <c r="O254" t="s">
+        <v>19</v>
+      </c>
+      <c r="P254" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16">
+      <c r="A255" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255" t="n">
+        <v>254</v>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D255" t="s"/>
+      <c r="E255" t="s"/>
+      <c r="F255" t="s"/>
+      <c r="G255" t="s"/>
+      <c r="H255" t="s">
+        <v>327</v>
+      </c>
+      <c r="I255" t="s">
+        <v>22</v>
+      </c>
+      <c r="J255" t="s">
+        <v>327</v>
+      </c>
+      <c r="K255" t="s"/>
+      <c r="L255" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="s"/>
+      <c r="N255" t="s">
+        <v>21</v>
+      </c>
+      <c r="O255" t="s">
+        <v>19</v>
+      </c>
+      <c r="P255" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16">
+      <c r="A256" t="s">
+        <v>16</v>
+      </c>
+      <c r="B256" t="n">
+        <v>255</v>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D256" t="s"/>
+      <c r="E256" t="s"/>
+      <c r="F256" t="s"/>
+      <c r="G256" t="s"/>
+      <c r="H256" t="s">
+        <v>328</v>
+      </c>
+      <c r="I256" t="s">
+        <v>22</v>
+      </c>
+      <c r="J256" t="s">
+        <v>328</v>
+      </c>
+      <c r="K256" t="s"/>
+      <c r="L256" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="s"/>
+      <c r="N256" t="s">
+        <v>21</v>
+      </c>
+      <c r="O256" t="s">
+        <v>19</v>
+      </c>
+      <c r="P256" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16">
+      <c r="A257" t="s">
+        <v>16</v>
+      </c>
+      <c r="B257" t="n">
+        <v>256</v>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D257" t="s"/>
+      <c r="E257" t="s"/>
+      <c r="F257" t="s"/>
+      <c r="G257" t="s"/>
+      <c r="H257" t="s">
+        <v>329</v>
+      </c>
+      <c r="I257" t="s">
+        <v>22</v>
+      </c>
+      <c r="J257" t="s">
+        <v>329</v>
+      </c>
+      <c r="K257" t="s"/>
+      <c r="L257" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="s"/>
+      <c r="N257" t="s">
+        <v>21</v>
+      </c>
+      <c r="O257" t="s">
+        <v>19</v>
+      </c>
+      <c r="P257" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16">
+      <c r="A258" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258" t="n">
+        <v>257</v>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D258" t="s"/>
+      <c r="E258" t="s"/>
+      <c r="F258" t="s"/>
+      <c r="G258" t="s"/>
+      <c r="H258" t="s">
+        <v>330</v>
+      </c>
+      <c r="I258" t="s">
+        <v>22</v>
+      </c>
+      <c r="J258" t="s">
+        <v>330</v>
+      </c>
+      <c r="K258" t="s"/>
+      <c r="L258" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="s"/>
+      <c r="N258" t="s">
+        <v>21</v>
+      </c>
+      <c r="O258" t="s">
+        <v>19</v>
+      </c>
+      <c r="P258" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16">
+      <c r="A259" t="s">
+        <v>16</v>
+      </c>
+      <c r="B259" t="n">
+        <v>258</v>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D259" t="s"/>
+      <c r="E259" t="s"/>
+      <c r="F259" t="s"/>
+      <c r="G259" t="s"/>
+      <c r="H259" t="s">
+        <v>331</v>
+      </c>
+      <c r="I259" t="s">
+        <v>22</v>
+      </c>
+      <c r="J259" t="s">
+        <v>331</v>
+      </c>
+      <c r="K259" t="s"/>
+      <c r="L259" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="s"/>
+      <c r="N259" t="s">
+        <v>21</v>
+      </c>
+      <c r="O259" t="s">
+        <v>19</v>
+      </c>
+      <c r="P259" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16">
+      <c r="A260" t="s">
+        <v>16</v>
+      </c>
+      <c r="B260" t="n">
+        <v>259</v>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D260" t="s"/>
+      <c r="E260" t="s"/>
+      <c r="F260" t="s"/>
+      <c r="G260" t="s"/>
+      <c r="H260" t="s">
+        <v>332</v>
+      </c>
+      <c r="I260" t="s">
+        <v>22</v>
+      </c>
+      <c r="J260" t="s">
+        <v>332</v>
+      </c>
+      <c r="K260" t="s"/>
+      <c r="L260" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s"/>
+      <c r="N260" t="s">
+        <v>21</v>
+      </c>
+      <c r="O260" t="s">
+        <v>19</v>
+      </c>
+      <c r="P260" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16">
+      <c r="A261" t="s">
+        <v>16</v>
+      </c>
+      <c r="B261" t="n">
+        <v>260</v>
+      </c>
+      <c r="C261" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D261" t="s"/>
+      <c r="E261" t="s"/>
+      <c r="F261" t="s"/>
+      <c r="G261" t="s"/>
+      <c r="H261" t="s">
+        <v>333</v>
+      </c>
+      <c r="I261" t="s">
+        <v>22</v>
+      </c>
+      <c r="J261" t="s">
+        <v>333</v>
+      </c>
+      <c r="K261" t="s"/>
+      <c r="L261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="s"/>
+      <c r="N261" t="s">
+        <v>21</v>
+      </c>
+      <c r="O261" t="s">
+        <v>19</v>
+      </c>
+      <c r="P261" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16">
+      <c r="A262" t="s">
+        <v>16</v>
+      </c>
+      <c r="B262" t="n">
+        <v>261</v>
+      </c>
+      <c r="C262" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D262" t="s"/>
+      <c r="E262" t="s"/>
+      <c r="F262" t="s"/>
+      <c r="G262" t="s"/>
+      <c r="H262" t="s">
+        <v>334</v>
+      </c>
+      <c r="I262" t="s">
+        <v>22</v>
+      </c>
+      <c r="J262" t="s">
+        <v>334</v>
+      </c>
+      <c r="K262" t="s"/>
+      <c r="L262" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s"/>
+      <c r="N262" t="s">
+        <v>21</v>
+      </c>
+      <c r="O262" t="s">
+        <v>19</v>
+      </c>
+      <c r="P262" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16">
+      <c r="A263" t="s">
+        <v>16</v>
+      </c>
+      <c r="B263" t="n">
+        <v>262</v>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D263" t="s"/>
+      <c r="E263" t="s"/>
+      <c r="F263" t="s"/>
+      <c r="G263" t="s"/>
+      <c r="H263" t="s">
+        <v>335</v>
+      </c>
+      <c r="I263" t="s">
+        <v>22</v>
+      </c>
+      <c r="J263" t="s">
+        <v>335</v>
+      </c>
+      <c r="K263" t="s"/>
+      <c r="L263" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="s"/>
+      <c r="N263" t="s">
+        <v>21</v>
+      </c>
+      <c r="O263" t="s">
+        <v>19</v>
+      </c>
+      <c r="P263" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16">
+      <c r="A264" t="s">
+        <v>16</v>
+      </c>
+      <c r="B264" t="n">
+        <v>263</v>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D264" t="s"/>
+      <c r="E264" t="s"/>
+      <c r="F264" t="s"/>
+      <c r="G264" t="s"/>
+      <c r="H264" t="s">
+        <v>336</v>
+      </c>
+      <c r="I264" t="s">
+        <v>22</v>
+      </c>
+      <c r="J264" t="s">
+        <v>336</v>
+      </c>
+      <c r="K264" t="s"/>
+      <c r="L264" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="s"/>
+      <c r="N264" t="s">
+        <v>21</v>
+      </c>
+      <c r="O264" t="s">
+        <v>19</v>
+      </c>
+      <c r="P264" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16">
+      <c r="A265" t="s">
+        <v>16</v>
+      </c>
+      <c r="B265" t="n">
+        <v>264</v>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D265" t="s"/>
+      <c r="E265" t="s"/>
+      <c r="F265" t="s"/>
+      <c r="G265" t="s"/>
+      <c r="H265" t="s">
+        <v>337</v>
+      </c>
+      <c r="I265" t="s">
+        <v>22</v>
+      </c>
+      <c r="J265" t="s">
+        <v>337</v>
+      </c>
+      <c r="K265" t="s"/>
+      <c r="L265" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="s"/>
+      <c r="N265" t="s">
+        <v>21</v>
+      </c>
+      <c r="O265" t="s">
+        <v>19</v>
+      </c>
+      <c r="P265" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16">
+      <c r="A266" t="s">
+        <v>16</v>
+      </c>
+      <c r="B266" t="n">
+        <v>265</v>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D266" t="s"/>
+      <c r="E266" t="s"/>
+      <c r="F266" t="s"/>
+      <c r="G266" t="s"/>
+      <c r="H266" t="s">
+        <v>338</v>
+      </c>
+      <c r="I266" t="s">
+        <v>22</v>
+      </c>
+      <c r="J266" t="s">
+        <v>338</v>
+      </c>
+      <c r="K266" t="s"/>
+      <c r="L266" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s"/>
+      <c r="N266" t="s">
+        <v>21</v>
+      </c>
+      <c r="O266" t="s">
+        <v>19</v>
+      </c>
+      <c r="P266" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
